--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_27.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_27.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9912040575013825</v>
+        <v>0.9265399418193705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7282362135377676</v>
+        <v>0.740638421038761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7115120859686238</v>
+        <v>0.6984669565102997</v>
       </c>
       <c r="E2" t="n">
-        <v>0.976376298727998</v>
+        <v>0.9741114138161709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03691468901638554</v>
+        <v>0.3082961494222767</v>
       </c>
       <c r="G2" t="n">
-        <v>1.817285691430122</v>
+        <v>1.734352072764064</v>
       </c>
       <c r="H2" t="n">
-        <v>1.031904540999875</v>
+        <v>1.078566212672235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01516816943535622</v>
+        <v>0.1713060944889976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3784145959176513</v>
+        <v>1.637522352872905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.192131957301188</v>
+        <v>0.5552442250237968</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005148844389435</v>
+        <v>0.7481369433806988</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2003114124914806</v>
+        <v>0.5788821211970578</v>
       </c>
       <c r="N2" t="n">
-        <v>136.5982914616444</v>
+        <v>36.35338886775691</v>
       </c>
       <c r="O2" t="n">
-        <v>215.8252200780775</v>
+        <v>57.07427789051631</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9912954611351985</v>
+        <v>0.9264661586482051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7276670673307548</v>
+        <v>0.7397087561489688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7111891522005357</v>
+        <v>0.7002985707532632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9741093651896582</v>
+        <v>0.9716804135214564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0365310875185571</v>
+        <v>0.3086058016077749</v>
       </c>
       <c r="G3" t="n">
-        <v>1.821091574737093</v>
+        <v>1.740568746162818</v>
       </c>
       <c r="H3" t="n">
-        <v>1.033059656363551</v>
+        <v>1.07201463472825</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01662370900607466</v>
+        <v>0.1873921473631119</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3750121812194193</v>
+        <v>1.633200993062496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1911310741835485</v>
+        <v>0.5555229982707961</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005095339823298</v>
+        <v>0.7478839725081319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1992679197074095</v>
+        <v>0.579172762398322</v>
       </c>
       <c r="N3" t="n">
-        <v>136.6191833361162</v>
+        <v>36.35138107892766</v>
       </c>
       <c r="O3" t="n">
-        <v>215.8461119525492</v>
+        <v>57.07227010168707</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9913682867259461</v>
+        <v>0.9263352181486826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7270927588485216</v>
+        <v>0.7388271072160221</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7108442479838</v>
+        <v>0.7023292502681737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9713400700511213</v>
+        <v>0.9690645313146711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03622545409322426</v>
+        <v>0.3091553308731477</v>
       </c>
       <c r="G4" t="n">
-        <v>1.824931978202235</v>
+        <v>1.746464336637053</v>
       </c>
       <c r="H4" t="n">
-        <v>1.034293358748119</v>
+        <v>1.064751011848979</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01840180200658253</v>
+        <v>0.2047015732740396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3743363469236733</v>
+        <v>1.628685548726606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1903298560216559</v>
+        <v>0.5560173836069765</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005052710209202</v>
+        <v>0.7474350336526261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1984325920296149</v>
+        <v>0.5796881947417823</v>
       </c>
       <c r="N4" t="n">
-        <v>136.6359865109985</v>
+        <v>36.34782287896054</v>
       </c>
       <c r="O4" t="n">
-        <v>215.8629151274315</v>
+        <v>57.06871190171995</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9914232293402346</v>
+        <v>0.9261494742152212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7265135522400652</v>
+        <v>0.7380148824371391</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7104786642092515</v>
+        <v>0.7046513190360317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.968088517632805</v>
+        <v>0.966251659721117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03599487169451863</v>
+        <v>0.3099348584270717</v>
       </c>
       <c r="G5" t="n">
-        <v>1.828805135459984</v>
+        <v>1.751895687473395</v>
       </c>
       <c r="H5" t="n">
-        <v>1.035601030711914</v>
+        <v>1.056445106507634</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02048953997114172</v>
+        <v>0.2233144879990533</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3736659279768864</v>
+        <v>1.623846360006163</v>
       </c>
       <c r="K5" t="n">
-        <v>0.189723144857233</v>
+        <v>0.5567179343501265</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005020548678887</v>
+        <v>0.7467981973093298</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1978000519148573</v>
+        <v>0.5804185693804081</v>
       </c>
       <c r="N5" t="n">
-        <v>136.6487576072069</v>
+        <v>36.34278627538086</v>
       </c>
       <c r="O5" t="n">
-        <v>215.8756862236399</v>
+        <v>57.06367529814027</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9914609776846897</v>
+        <v>0.9259126714088046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7259298354465737</v>
+        <v>0.7373017603373855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7100926791319002</v>
+        <v>0.7073942335075765</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9643745596000358</v>
+        <v>0.9632263630415013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03583644996806249</v>
+        <v>0.3109286691481457</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83270845234583</v>
+        <v>1.756664338238072</v>
       </c>
       <c r="H6" t="n">
-        <v>1.036981676952899</v>
+        <v>1.046633860486238</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02287417665733324</v>
+        <v>0.2433330303472339</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3729929908337095</v>
+        <v>1.618489076086626</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1893051768126336</v>
+        <v>0.5576097821489018</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004998452087011</v>
+        <v>0.7459863019730444</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1973642901052862</v>
+        <v>0.5813483849863569</v>
       </c>
       <c r="N6" t="n">
-        <v>136.6575794960236</v>
+        <v>36.33638350552423</v>
       </c>
       <c r="O6" t="n">
-        <v>215.8845081124566</v>
+        <v>57.05727252828364</v>
       </c>
     </row>
     <row r="7">
@@ -757,144 +757,144 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9914820889545694</v>
+        <v>0.9256295709358944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7253419970721784</v>
+        <v>0.7367277348509738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7096875381312626</v>
+        <v>0.7107353532125292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.96021705997203</v>
+        <v>0.9599722803321596</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03574785048455335</v>
+        <v>0.3121167812713795</v>
       </c>
       <c r="G7" t="n">
-        <v>1.836639330262158</v>
+        <v>1.760502849308852</v>
       </c>
       <c r="H7" t="n">
-        <v>1.038430842820755</v>
+        <v>1.034682869030873</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02554359996483845</v>
+        <v>0.2648654615168317</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3723234625862362</v>
+        <v>1.612366005260916</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1890710196845443</v>
+        <v>0.5586741279774637</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004986094270496</v>
+        <v>0.7450156717802092</v>
       </c>
       <c r="M7" t="n">
-        <v>0.197120164423482</v>
+        <v>0.5824580422203403</v>
       </c>
       <c r="N7" t="n">
-        <v>136.662530275912</v>
+        <v>36.3287557245166</v>
       </c>
       <c r="O7" t="n">
-        <v>215.889458892345</v>
+        <v>57.04964474727601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_6</t>
+          <t>model_1_27_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9914872957094539</v>
+        <v>0.9243307215019005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7247503362548378</v>
+        <v>0.7365732623635028</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7092637006460227</v>
+        <v>0.7339505099515533</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9556344932883767</v>
+        <v>0.9455407450650243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03572599884814517</v>
+        <v>0.3175677744926885</v>
       </c>
       <c r="G8" t="n">
-        <v>1.840595768872063</v>
+        <v>1.76153580754385</v>
       </c>
       <c r="H8" t="n">
-        <v>1.039946884929948</v>
+        <v>0.9516435994675132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02848594786816437</v>
+        <v>0.3603596660492296</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3716518304320487</v>
+        <v>1.576677360664579</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1890132240033622</v>
+        <v>0.5635315204074112</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004983046413978</v>
+        <v>0.7405624737208019</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1970599082604984</v>
+        <v>0.5875222239022191</v>
       </c>
       <c r="N8" t="n">
-        <v>136.6637531923936</v>
+        <v>36.29412804092054</v>
       </c>
       <c r="O8" t="n">
-        <v>215.8906818088267</v>
+        <v>57.01501706367995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_7</t>
+          <t>model_1_27_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9914771281949157</v>
+        <v>0.9253086817383094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7241552004260208</v>
+        <v>0.7363417746470922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7088225663972286</v>
+        <v>0.7148989226623952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9506450571634061</v>
+        <v>0.9564848860419857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0357686697316013</v>
+        <v>0.3134634845882133</v>
       </c>
       <c r="G9" t="n">
-        <v>1.844575444899711</v>
+        <v>1.763083766969392</v>
       </c>
       <c r="H9" t="n">
-        <v>1.041524796559451</v>
+        <v>1.01979002252633</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0316895361483859</v>
+        <v>0.2879417273102144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3709831598213779</v>
+        <v>1.60518151256983</v>
       </c>
       <c r="K9" t="n">
-        <v>0.189126068355479</v>
+        <v>0.5598780979715257</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004988998129805</v>
+        <v>0.7439154802456323</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1971775566303048</v>
+        <v>0.5837132677096109</v>
       </c>
       <c r="N9" t="n">
-        <v>136.6613658318046</v>
+        <v>36.32014480457141</v>
       </c>
       <c r="O9" t="n">
-        <v>215.8882944482376</v>
+        <v>57.04103382733082</v>
       </c>
     </row>
     <row r="10">
@@ -904,95 +904,95 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9914522666016864</v>
+        <v>0.9246250046188375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7235569779251194</v>
+        <v>0.7362835212028359</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7083641656097726</v>
+        <v>0.7264973093939088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9452678970452123</v>
+        <v>0.9490616313954346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03587300851992992</v>
+        <v>0.3163327312046946</v>
       </c>
       <c r="G10" t="n">
-        <v>1.848575761517799</v>
+        <v>1.763473308019366</v>
       </c>
       <c r="H10" t="n">
-        <v>1.043164469596576</v>
+        <v>0.9783032657008089</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03514207200695893</v>
+        <v>0.3370617817182943</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3703145950030253</v>
+        <v>1.587029230663957</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1894017120300921</v>
+        <v>0.562434646163174</v>
       </c>
       <c r="L10" t="n">
-        <v>1.005003551257549</v>
+        <v>0.7415714444074427</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1974649350268073</v>
+        <v>0.5863786534505619</v>
       </c>
       <c r="N10" t="n">
-        <v>136.6555402361655</v>
+        <v>36.30192134500927</v>
       </c>
       <c r="O10" t="n">
-        <v>215.8824688525986</v>
+        <v>57.02281036776868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_9</t>
+          <t>model_1_27_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9914132086850638</v>
+        <v>0.924965027312967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7229559021987422</v>
+        <v>0.7361894820818592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7078897035781599</v>
+        <v>0.7201129489328799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9395179298827524</v>
+        <v>0.9528025342219496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03603692624062657</v>
+        <v>0.3149057286959492</v>
       </c>
       <c r="G11" t="n">
-        <v>1.852595157667783</v>
+        <v>1.764102148054347</v>
       </c>
       <c r="H11" t="n">
-        <v>1.044861592772766</v>
+        <v>1.00113975288342</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03883397765560054</v>
+        <v>0.312308037016955</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3696479375868125</v>
+        <v>1.5967056542468</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1898339438578532</v>
+        <v>0.56116461817897</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005026414428255</v>
+        <v>0.7427372365016013</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1979155678583195</v>
+        <v>0.5850545577457501</v>
       </c>
       <c r="N11" t="n">
-        <v>136.6464222746403</v>
+        <v>36.31096391785803</v>
       </c>
       <c r="O11" t="n">
-        <v>215.8733508910734</v>
+        <v>57.03185294061743</v>
       </c>
     </row>
   </sheetData>
